--- a/WatanyaPingTester/bin/Debug/res/alexReport.xlsx
+++ b/WatanyaPingTester/bin/Debug/res/alexReport.xlsx
@@ -738,10 +738,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E3">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -772,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E4">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E5">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -806,10 +806,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E6">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -823,10 +823,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -840,10 +840,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E10">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -891,10 +891,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E11">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -908,10 +908,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E12">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -922,13 +922,13 @@
         <v>28</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>94.69</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E14">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E15">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -976,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="E16">
-        <v>100</v>
+        <v>96.72</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>97.18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1010,10 +1010,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="E18">
-        <v>100</v>
+        <v>97.18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1024,13 +1024,13 @@
         <v>40</v>
       </c>
       <c r="C19">
-        <v>96.71</v>
+        <v>88.08</v>
       </c>
       <c r="D19">
-        <v>1.88</v>
+        <v>9.48</v>
       </c>
       <c r="E19">
-        <v>1.41</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1041,13 +1041,13 @@
         <v>42</v>
       </c>
       <c r="C20">
-        <v>88.73</v>
+        <v>77.569999999999993</v>
       </c>
       <c r="D20">
-        <v>2.82</v>
+        <v>9.85</v>
       </c>
       <c r="E20">
-        <v>8.4499999999999993</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1058,13 +1058,13 @@
         <v>44</v>
       </c>
       <c r="C21">
-        <v>100</v>
+        <v>94.09</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1078,10 +1078,10 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E22">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E23">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1109,13 +1109,13 @@
         <v>50</v>
       </c>
       <c r="C24">
-        <v>99.06</v>
+        <v>90.63</v>
       </c>
       <c r="D24">
-        <v>0.47</v>
+        <v>6.55</v>
       </c>
       <c r="E24">
-        <v>0.47</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,13 +1126,13 @@
         <v>52</v>
       </c>
       <c r="C25">
-        <v>100</v>
+        <v>94.2</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>4.01</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1143,13 +1143,13 @@
         <v>54</v>
       </c>
       <c r="C26">
-        <v>97.18</v>
+        <v>93.87</v>
       </c>
       <c r="D26">
-        <v>1.88</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="E26">
-        <v>0.94</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E27">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1177,13 +1177,13 @@
         <v>58</v>
       </c>
       <c r="C28">
-        <v>97.65</v>
+        <v>91.47</v>
       </c>
       <c r="D28">
-        <v>1.41</v>
+        <v>6.06</v>
       </c>
       <c r="E28">
-        <v>0.94</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1194,13 +1194,13 @@
         <v>60</v>
       </c>
       <c r="C29">
-        <v>97.18</v>
+        <v>90.72</v>
       </c>
       <c r="D29">
-        <v>1.88</v>
+        <v>6.55</v>
       </c>
       <c r="E29">
-        <v>0.94</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1211,13 +1211,13 @@
         <v>62</v>
       </c>
       <c r="C30">
-        <v>97.18</v>
+        <v>90.39</v>
       </c>
       <c r="D30">
-        <v>1.88</v>
+        <v>6.87</v>
       </c>
       <c r="E30">
-        <v>0.94</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1228,13 +1228,13 @@
         <v>64</v>
       </c>
       <c r="C31">
-        <v>100</v>
+        <v>89.66</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>7.21</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1248,10 +1248,10 @@
         <v>0</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E32">
-        <v>100</v>
+        <v>99.95</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="E33">
-        <v>100</v>
+        <v>99.21</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1282,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E34">
-        <v>100</v>
+        <v>99.71</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1299,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E35">
-        <v>100</v>
+        <v>99.71</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -1313,13 +1313,13 @@
         <v>72</v>
       </c>
       <c r="C36">
-        <v>97.18</v>
+        <v>84.91</v>
       </c>
       <c r="D36">
-        <v>1.88</v>
+        <v>9.48</v>
       </c>
       <c r="E36">
-        <v>0.94</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,13 +1330,13 @@
         <v>74</v>
       </c>
       <c r="C37">
-        <v>98.59</v>
+        <v>83.58</v>
       </c>
       <c r="D37">
-        <v>0.94</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="E37">
-        <v>0.47</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E38">
-        <v>100</v>
+        <v>99.71</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1367,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E39">
-        <v>100</v>
+        <v>99.71</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,13 +1381,13 @@
         <v>80</v>
       </c>
       <c r="C40">
-        <v>100</v>
+        <v>84.57</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>9.52</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1398,13 +1398,13 @@
         <v>82</v>
       </c>
       <c r="C41">
-        <v>100</v>
+        <v>85.59</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>9.1199999999999992</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E42">
-        <v>100</v>
+        <v>99.71</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1432,13 +1432,13 @@
         <v>86</v>
       </c>
       <c r="C43">
-        <v>99.06</v>
+        <v>84</v>
       </c>
       <c r="D43">
-        <v>0.47</v>
+        <v>10.25</v>
       </c>
       <c r="E43">
-        <v>0.47</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1449,13 +1449,13 @@
         <v>88</v>
       </c>
       <c r="C44">
-        <v>97.65</v>
+        <v>83.91</v>
       </c>
       <c r="D44">
-        <v>1.41</v>
+        <v>10.09</v>
       </c>
       <c r="E44">
-        <v>0.94</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1469,10 +1469,10 @@
         <v>0</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E45">
-        <v>100</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1486,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E46">
-        <v>100</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1503,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E47">
-        <v>100</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1520,10 +1520,10 @@
         <v>0</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E48">
-        <v>100</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1537,10 +1537,10 @@
         <v>0</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E49">
-        <v>100</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="D50">
-        <v>100</v>
+        <v>8.92</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>91.08</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1571,10 +1571,10 @@
         <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E51">
-        <v>100</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E52">
-        <v>100</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1605,10 +1605,10 @@
         <v>0</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E53">
-        <v>100</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1622,10 +1622,10 @@
         <v>0</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E54">
-        <v>100</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1639,10 +1639,10 @@
         <v>0</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>2.5299999999999998</v>
       </c>
       <c r="E55">
-        <v>100</v>
+        <v>97.47</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1653,13 +1653,13 @@
         <v>112</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>82.57</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>11.35</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1670,13 +1670,13 @@
         <v>114</v>
       </c>
       <c r="C57">
-        <v>99.06</v>
+        <v>83.78</v>
       </c>
       <c r="D57">
-        <v>0.47</v>
+        <v>10.66</v>
       </c>
       <c r="E57">
-        <v>0.47</v>
+        <v>5.57</v>
       </c>
     </row>
   </sheetData>
